--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I905"/>
+  <dimension ref="A1:I906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32187,6 +32187,41 @@
         <v>14511100</v>
       </c>
     </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I906" t="n">
+        <v>4835800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I906"/>
+  <dimension ref="A1:I907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32222,6 +32222,41 @@
         <v>4835800</v>
       </c>
     </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G907" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I907" t="n">
+        <v>2901000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I907"/>
+  <dimension ref="A1:I908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32257,6 +32257,41 @@
         <v>2901000</v>
       </c>
     </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G908" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I908" t="n">
+        <v>7336600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I908"/>
+  <dimension ref="A1:I909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32292,6 +32292,41 @@
         <v>7336600</v>
       </c>
     </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G909" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I909" t="n">
+        <v>5511600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I909"/>
+  <dimension ref="A1:I910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32327,6 +32327,41 @@
         <v>5511600</v>
       </c>
     </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G910" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I910" t="n">
+        <v>3433900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I910"/>
+  <dimension ref="A1:I911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32362,6 +32362,41 @@
         <v>3433900</v>
       </c>
     </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G911" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I911" t="n">
+        <v>6239900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I911"/>
+  <dimension ref="A1:I912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32397,6 +32397,41 @@
         <v>6239900</v>
       </c>
     </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G912" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I912" t="n">
+        <v>4987400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I912"/>
+  <dimension ref="A1:I913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32432,6 +32432,41 @@
         <v>4987400</v>
       </c>
     </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G913" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I913" t="n">
+        <v>6381100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I913"/>
+  <dimension ref="A1:I914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32467,6 +32467,41 @@
         <v>6381100</v>
       </c>
     </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G914" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I914" t="n">
+        <v>3880200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I914"/>
+  <dimension ref="A1:I915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32502,6 +32502,41 @@
         <v>3880200</v>
       </c>
     </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G915" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I915" t="n">
+        <v>5021000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I915"/>
+  <dimension ref="A1:I916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32537,6 +32537,41 @@
         <v>5021000</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G916" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I916" t="n">
+        <v>4620000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I916"/>
+  <dimension ref="A1:I917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32572,6 +32572,41 @@
         <v>4620000</v>
       </c>
     </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G917" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I917" t="n">
+        <v>4295200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I917"/>
+  <dimension ref="A1:I919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32607,6 +32607,76 @@
         <v>4295200</v>
       </c>
     </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G918" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I918" t="n">
+        <v>2040800</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G919" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I919" t="n">
+        <v>3402200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I919"/>
+  <dimension ref="A1:I921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32677,6 +32677,76 @@
         <v>3402200</v>
       </c>
     </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G920" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I920" t="n">
+        <v>2076100</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G921" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I921" t="n">
+        <v>6547900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I921"/>
+  <dimension ref="A1:I922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32747,6 +32747,41 @@
         <v>6547900</v>
       </c>
     </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G922" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I922" t="n">
+        <v>8781100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I922"/>
+  <dimension ref="A1:I923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32782,6 +32782,41 @@
         <v>8781100</v>
       </c>
     </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G923" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I923" t="n">
+        <v>2210200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I923"/>
+  <dimension ref="A1:I924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32817,6 +32817,41 @@
         <v>2210200</v>
       </c>
     </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G924" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I924" t="n">
+        <v>9039400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I924"/>
+  <dimension ref="A1:I925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32852,6 +32852,41 @@
         <v>9039400</v>
       </c>
     </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G925" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I925" t="n">
+        <v>6228300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I925"/>
+  <dimension ref="A1:I927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32887,6 +32887,76 @@
         <v>6228300</v>
       </c>
     </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I926" t="n">
+        <v>4329600</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G927" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I927" t="n">
+        <v>3360300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I927"/>
+  <dimension ref="A1:I928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32957,6 +32957,41 @@
         <v>3360300</v>
       </c>
     </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G928" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I928" t="n">
+        <v>3618500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I928"/>
+  <dimension ref="A1:I929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32992,6 +32992,41 @@
         <v>3618500</v>
       </c>
     </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G929" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I929" t="n">
+        <v>3523200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I929"/>
+  <dimension ref="A1:I938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30474,11 +30474,11 @@
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -30492,28 +30492,28 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>0.115</v>
+        <v>0.135</v>
       </c>
       <c r="F857" t="n">
-        <v>0.115</v>
+        <v>0.135</v>
       </c>
       <c r="G857" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="H857" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I857" t="n">
-        <v>395700</v>
+        <v>595700</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -30527,28 +30527,28 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F858" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="G858" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="H858" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I858" t="n">
-        <v>144500</v>
+        <v>195100</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -30562,28 +30562,28 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>0.115</v>
+        <v>0.125</v>
       </c>
       <c r="F859" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G859" t="n">
         <v>0.12</v>
       </c>
-      <c r="G859" t="n">
-        <v>0.115</v>
-      </c>
       <c r="H859" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="I859" t="n">
-        <v>282700</v>
+        <v>541400</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -30597,7 +30597,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="F860" t="n">
         <v>0.125</v>
@@ -30609,16 +30609,16 @@
         <v>0.125</v>
       </c>
       <c r="I860" t="n">
-        <v>771200</v>
+        <v>2044000</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -30632,10 +30632,10 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F861" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="G861" t="n">
         <v>0.12</v>
@@ -30644,16 +30644,16 @@
         <v>0.12</v>
       </c>
       <c r="I861" t="n">
-        <v>511500</v>
+        <v>216400</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -30673,22 +30673,22 @@
         <v>0.12</v>
       </c>
       <c r="G862" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="H862" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="I862" t="n">
-        <v>205000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -30702,28 +30702,28 @@
         </is>
       </c>
       <c r="E863" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F863" t="n">
         <v>0.12</v>
       </c>
-      <c r="F863" t="n">
-        <v>0.13</v>
-      </c>
       <c r="G863" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H863" t="n">
-        <v>0.13</v>
+        <v>0.115</v>
       </c>
       <c r="I863" t="n">
-        <v>530900</v>
+        <v>477000</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -30737,28 +30737,28 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>0.13</v>
+        <v>0.115</v>
       </c>
       <c r="F864" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G864" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H864" t="n">
-        <v>0.13</v>
+        <v>0.115</v>
       </c>
       <c r="I864" t="n">
-        <v>359000</v>
+        <v>205800</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -30772,28 +30772,28 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="F865" t="n">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="G865" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H865" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="I865" t="n">
-        <v>111100</v>
+        <v>89700</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -30807,28 +30807,28 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="F866" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="G866" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H866" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I866" t="n">
-        <v>212500</v>
+        <v>395700</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -30842,28 +30842,28 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F867" t="n">
         <v>0.12</v>
       </c>
       <c r="G867" t="n">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="H867" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I867" t="n">
-        <v>359400</v>
+        <v>144500</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -30877,28 +30877,28 @@
         </is>
       </c>
       <c r="E868" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F868" t="n">
         <v>0.12</v>
       </c>
-      <c r="F868" t="n">
-        <v>0.135</v>
-      </c>
       <c r="G868" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H868" t="n">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="I868" t="n">
-        <v>952700</v>
+        <v>282700</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -30912,28 +30912,28 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="F869" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="G869" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H869" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="I869" t="n">
-        <v>358900</v>
+        <v>771200</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -30947,28 +30947,28 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="F870" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="G870" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="H870" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="I870" t="n">
-        <v>253300</v>
+        <v>511500</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -30982,28 +30982,28 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F871" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G871" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="H871" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="I871" t="n">
-        <v>361000</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -31017,28 +31017,28 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F872" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="G872" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="H872" t="n">
         <v>0.13</v>
       </c>
       <c r="I872" t="n">
-        <v>1333000</v>
+        <v>530900</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -31052,28 +31052,28 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="F873" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="G873" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H873" t="n">
         <v>0.13</v>
       </c>
       <c r="I873" t="n">
-        <v>627500</v>
+        <v>359000</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -31090,25 +31090,25 @@
         <v>0.125</v>
       </c>
       <c r="F874" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="G874" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="H874" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="I874" t="n">
-        <v>493800</v>
+        <v>111100</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -31122,28 +31122,28 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="F875" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G875" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="H875" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I875" t="n">
-        <v>1818700</v>
+        <v>212500</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -31157,28 +31157,28 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F876" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G876" t="n">
-        <v>0.135</v>
+        <v>0.115</v>
       </c>
       <c r="H876" t="n">
-        <v>0.135</v>
+        <v>0.12</v>
       </c>
       <c r="I876" t="n">
-        <v>260500</v>
+        <v>359400</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -31192,28 +31192,28 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F877" t="n">
         <v>0.135</v>
       </c>
       <c r="G877" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H877" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="I877" t="n">
-        <v>440600</v>
+        <v>952700</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -31227,28 +31227,28 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>0.135</v>
+        <v>0.12</v>
       </c>
       <c r="F878" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G878" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H878" t="n">
         <v>0.13</v>
       </c>
-      <c r="H878" t="n">
-        <v>0.135</v>
-      </c>
       <c r="I878" t="n">
-        <v>702900</v>
+        <v>358900</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -31262,28 +31262,28 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F879" t="n">
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="G879" t="n">
-        <v>0.135</v>
+        <v>0.125</v>
       </c>
       <c r="H879" t="n">
-        <v>0.145</v>
+        <v>0.125</v>
       </c>
       <c r="I879" t="n">
-        <v>4035200</v>
+        <v>253300</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -31297,28 +31297,28 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F880" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="G880" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="H880" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I880" t="n">
-        <v>1068100</v>
+        <v>361000</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -31332,28 +31332,28 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>0.14</v>
+        <v>0.125</v>
       </c>
       <c r="F881" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="G881" t="n">
-        <v>0.14</v>
+        <v>0.125</v>
       </c>
       <c r="H881" t="n">
-        <v>0.145</v>
+        <v>0.13</v>
       </c>
       <c r="I881" t="n">
-        <v>193000</v>
+        <v>1333000</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -31367,28 +31367,28 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="F882" t="n">
-        <v>0.165</v>
+        <v>0.135</v>
       </c>
       <c r="G882" t="n">
-        <v>0.145</v>
+        <v>0.13</v>
       </c>
       <c r="H882" t="n">
-        <v>0.165</v>
+        <v>0.13</v>
       </c>
       <c r="I882" t="n">
-        <v>4697800</v>
+        <v>627500</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -31402,28 +31402,28 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>0.17</v>
+        <v>0.125</v>
       </c>
       <c r="F883" t="n">
-        <v>0.175</v>
+        <v>0.13</v>
       </c>
       <c r="G883" t="n">
-        <v>0.155</v>
+        <v>0.125</v>
       </c>
       <c r="H883" t="n">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="I883" t="n">
-        <v>4193000</v>
+        <v>493800</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -31437,28 +31437,28 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>0.165</v>
+        <v>0.125</v>
       </c>
       <c r="F884" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G884" t="n">
-        <v>0.165</v>
+        <v>0.125</v>
       </c>
       <c r="H884" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I884" t="n">
-        <v>5990600</v>
+        <v>1818700</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -31472,28 +31472,28 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="F885" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G885" t="n">
-        <v>0.165</v>
+        <v>0.135</v>
       </c>
       <c r="H885" t="n">
-        <v>0.165</v>
+        <v>0.135</v>
       </c>
       <c r="I885" t="n">
-        <v>1046300</v>
+        <v>260500</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -31507,28 +31507,28 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F886" t="n">
-        <v>0.17</v>
+        <v>0.135</v>
       </c>
       <c r="G886" t="n">
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="H886" t="n">
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="I886" t="n">
-        <v>1094400</v>
+        <v>440600</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -31542,28 +31542,28 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>0.16</v>
+        <v>0.135</v>
       </c>
       <c r="F887" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G887" t="n">
-        <v>0.155</v>
+        <v>0.13</v>
       </c>
       <c r="H887" t="n">
-        <v>0.16</v>
+        <v>0.135</v>
       </c>
       <c r="I887" t="n">
-        <v>1659000</v>
+        <v>702900</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -31577,28 +31577,28 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F888" t="n">
-        <v>0.17</v>
+        <v>0.155</v>
       </c>
       <c r="G888" t="n">
-        <v>0.155</v>
+        <v>0.135</v>
       </c>
       <c r="H888" t="n">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="I888" t="n">
-        <v>632400</v>
+        <v>4035200</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -31612,28 +31612,28 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F889" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G889" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H889" t="n">
-        <v>0.155</v>
+        <v>0.14</v>
       </c>
       <c r="I889" t="n">
-        <v>224500</v>
+        <v>1068100</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -31647,28 +31647,28 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>0.155</v>
+        <v>0.14</v>
       </c>
       <c r="F890" t="n">
-        <v>0.165</v>
+        <v>0.145</v>
       </c>
       <c r="G890" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H890" t="n">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="I890" t="n">
-        <v>694900</v>
+        <v>193000</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -31682,28 +31682,28 @@
         </is>
       </c>
       <c r="E891" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F891" t="n">
         <v>0.165</v>
       </c>
-      <c r="F891" t="n">
-        <v>0.175</v>
-      </c>
       <c r="G891" t="n">
-        <v>0.16</v>
+        <v>0.145</v>
       </c>
       <c r="H891" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="I891" t="n">
-        <v>6812100</v>
+        <v>4697800</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -31717,28 +31717,28 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F892" t="n">
-        <v>0.19</v>
+        <v>0.175</v>
       </c>
       <c r="G892" t="n">
-        <v>0.175</v>
+        <v>0.155</v>
       </c>
       <c r="H892" t="n">
-        <v>0.185</v>
+        <v>0.16</v>
       </c>
       <c r="I892" t="n">
-        <v>8037300</v>
+        <v>4193000</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -31752,28 +31752,28 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>0.185</v>
+        <v>0.165</v>
       </c>
       <c r="F893" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="G893" t="n">
-        <v>0.18</v>
+        <v>0.165</v>
       </c>
       <c r="H893" t="n">
-        <v>0.185</v>
+        <v>0.17</v>
       </c>
       <c r="I893" t="n">
-        <v>1269600</v>
+        <v>5990600</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -31787,28 +31787,28 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>0.185</v>
+        <v>0.17</v>
       </c>
       <c r="F894" t="n">
-        <v>0.185</v>
+        <v>0.17</v>
       </c>
       <c r="G894" t="n">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
       <c r="H894" t="n">
-        <v>0.185</v>
+        <v>0.165</v>
       </c>
       <c r="I894" t="n">
-        <v>1570500</v>
+        <v>1046300</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -31822,28 +31822,28 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>0.185</v>
+        <v>0.17</v>
       </c>
       <c r="F895" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="G895" t="n">
-        <v>0.18</v>
+        <v>0.155</v>
       </c>
       <c r="H895" t="n">
-        <v>0.19</v>
+        <v>0.155</v>
       </c>
       <c r="I895" t="n">
-        <v>2282600</v>
+        <v>1094400</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -31857,28 +31857,28 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="F896" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="G896" t="n">
-        <v>0.2</v>
+        <v>0.155</v>
       </c>
       <c r="H896" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I896" t="n">
-        <v>39103900</v>
+        <v>1659000</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -31892,28 +31892,28 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>0.245</v>
+        <v>0.16</v>
       </c>
       <c r="F897" t="n">
-        <v>0.255</v>
+        <v>0.17</v>
       </c>
       <c r="G897" t="n">
-        <v>0.21</v>
+        <v>0.155</v>
       </c>
       <c r="H897" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I897" t="n">
-        <v>15055600</v>
+        <v>632400</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -31927,28 +31927,28 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="F898" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="G898" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="H898" t="n">
-        <v>0.225</v>
+        <v>0.155</v>
       </c>
       <c r="I898" t="n">
-        <v>8727400</v>
+        <v>224500</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -31962,28 +31962,28 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>0.235</v>
+        <v>0.155</v>
       </c>
       <c r="F899" t="n">
-        <v>0.24</v>
+        <v>0.165</v>
       </c>
       <c r="G899" t="n">
-        <v>0.195</v>
+        <v>0.15</v>
       </c>
       <c r="H899" t="n">
-        <v>0.195</v>
+        <v>0.16</v>
       </c>
       <c r="I899" t="n">
-        <v>16469400</v>
+        <v>694900</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -31997,10 +31997,10 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>0.19</v>
+        <v>0.165</v>
       </c>
       <c r="F900" t="n">
-        <v>0.19</v>
+        <v>0.175</v>
       </c>
       <c r="G900" t="n">
         <v>0.16</v>
@@ -32009,16 +32009,16 @@
         <v>0.175</v>
       </c>
       <c r="I900" t="n">
-        <v>8986000</v>
+        <v>6812100</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -32035,25 +32035,25 @@
         <v>0.18</v>
       </c>
       <c r="F901" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="G901" t="n">
-        <v>0.18</v>
+        <v>0.175</v>
       </c>
       <c r="H901" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="I901" t="n">
-        <v>10346400</v>
+        <v>8037300</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -32067,28 +32067,28 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>0.195</v>
+        <v>0.185</v>
       </c>
       <c r="F902" t="n">
-        <v>0.23</v>
+        <v>0.185</v>
       </c>
       <c r="G902" t="n">
         <v>0.18</v>
       </c>
       <c r="H902" t="n">
-        <v>0.225</v>
+        <v>0.185</v>
       </c>
       <c r="I902" t="n">
-        <v>19076600</v>
+        <v>1269600</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -32102,28 +32102,28 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>0.22</v>
+        <v>0.185</v>
       </c>
       <c r="F903" t="n">
-        <v>0.23</v>
+        <v>0.185</v>
       </c>
       <c r="G903" t="n">
-        <v>0.21</v>
+        <v>0.175</v>
       </c>
       <c r="H903" t="n">
-        <v>0.21</v>
+        <v>0.185</v>
       </c>
       <c r="I903" t="n">
-        <v>11768500</v>
+        <v>1570500</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -32137,28 +32137,28 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>0.215</v>
+        <v>0.185</v>
       </c>
       <c r="F904" t="n">
-        <v>0.215</v>
+        <v>0.19</v>
       </c>
       <c r="G904" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H904" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I904" t="n">
-        <v>3430400</v>
+        <v>2282600</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -32172,28 +32172,28 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F905" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="G905" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="H905" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I905" t="n">
-        <v>14511100</v>
+        <v>39103900</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -32207,28 +32207,28 @@
         </is>
       </c>
       <c r="E906" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H906" t="n">
         <v>0.22</v>
       </c>
-      <c r="F906" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G906" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="H906" t="n">
-        <v>0.21</v>
-      </c>
       <c r="I906" t="n">
-        <v>4835800</v>
+        <v>15055600</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -32242,28 +32242,28 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>0.205</v>
+        <v>0.23</v>
       </c>
       <c r="F907" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G907" t="n">
-        <v>0.205</v>
+        <v>0.21</v>
       </c>
       <c r="H907" t="n">
-        <v>0.205</v>
+        <v>0.225</v>
       </c>
       <c r="I907" t="n">
-        <v>2901000</v>
+        <v>8727400</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -32277,28 +32277,28 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>0.205</v>
+        <v>0.235</v>
       </c>
       <c r="F908" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="G908" t="n">
-        <v>0.205</v>
+        <v>0.195</v>
       </c>
       <c r="H908" t="n">
-        <v>0.21</v>
+        <v>0.195</v>
       </c>
       <c r="I908" t="n">
-        <v>7336600</v>
+        <v>16469400</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -32312,28 +32312,28 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F909" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="G909" t="n">
-        <v>0.205</v>
+        <v>0.16</v>
       </c>
       <c r="H909" t="n">
-        <v>0.215</v>
+        <v>0.175</v>
       </c>
       <c r="I909" t="n">
-        <v>5511600</v>
+        <v>8986000</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -32347,28 +32347,28 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>0.215</v>
+        <v>0.18</v>
       </c>
       <c r="F910" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="G910" t="n">
-        <v>0.205</v>
+        <v>0.18</v>
       </c>
       <c r="H910" t="n">
-        <v>0.205</v>
+        <v>0.19</v>
       </c>
       <c r="I910" t="n">
-        <v>3433900</v>
+        <v>10346400</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -32382,28 +32382,28 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>0.21</v>
+        <v>0.195</v>
       </c>
       <c r="F911" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="G911" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="H911" t="n">
-        <v>0.195</v>
+        <v>0.225</v>
       </c>
       <c r="I911" t="n">
-        <v>6239900</v>
+        <v>19076600</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -32417,28 +32417,28 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="F912" t="n">
-        <v>0.195</v>
+        <v>0.23</v>
       </c>
       <c r="G912" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="H912" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I912" t="n">
-        <v>4987400</v>
+        <v>11768500</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -32452,28 +32452,28 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="F913" t="n">
-        <v>0.185</v>
+        <v>0.215</v>
       </c>
       <c r="G913" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="H913" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I913" t="n">
-        <v>6381100</v>
+        <v>3430400</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -32487,28 +32487,28 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="F914" t="n">
-        <v>0.185</v>
+        <v>0.23</v>
       </c>
       <c r="G914" t="n">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="H914" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I914" t="n">
-        <v>3880200</v>
+        <v>14511100</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -32522,28 +32522,28 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>0.165</v>
+        <v>0.22</v>
       </c>
       <c r="F915" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G915" t="n">
-        <v>0.15</v>
+        <v>0.205</v>
       </c>
       <c r="H915" t="n">
-        <v>0.165</v>
+        <v>0.21</v>
       </c>
       <c r="I915" t="n">
-        <v>5021000</v>
+        <v>4835800</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -32557,28 +32557,28 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>0.155</v>
+        <v>0.205</v>
       </c>
       <c r="F916" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G916" t="n">
-        <v>0.155</v>
+        <v>0.205</v>
       </c>
       <c r="H916" t="n">
-        <v>0.165</v>
+        <v>0.205</v>
       </c>
       <c r="I916" t="n">
-        <v>4620000</v>
+        <v>2901000</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -32592,28 +32592,28 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="F917" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="G917" t="n">
-        <v>0.17</v>
+        <v>0.205</v>
       </c>
       <c r="H917" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I917" t="n">
-        <v>4295200</v>
+        <v>7336600</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -32627,28 +32627,28 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>0.175</v>
+        <v>0.21</v>
       </c>
       <c r="F918" t="n">
-        <v>0.175</v>
+        <v>0.22</v>
       </c>
       <c r="G918" t="n">
-        <v>0.16</v>
+        <v>0.205</v>
       </c>
       <c r="H918" t="n">
-        <v>0.165</v>
+        <v>0.215</v>
       </c>
       <c r="I918" t="n">
-        <v>2040800</v>
+        <v>5511600</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -32662,28 +32662,28 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>0.16</v>
+        <v>0.215</v>
       </c>
       <c r="F919" t="n">
-        <v>0.16</v>
+        <v>0.215</v>
       </c>
       <c r="G919" t="n">
-        <v>0.14</v>
+        <v>0.205</v>
       </c>
       <c r="H919" t="n">
-        <v>0.145</v>
+        <v>0.205</v>
       </c>
       <c r="I919" t="n">
-        <v>3402200</v>
+        <v>3433900</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -32697,28 +32697,28 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="F920" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="G920" t="n">
-        <v>0.135</v>
+        <v>0.185</v>
       </c>
       <c r="H920" t="n">
-        <v>0.15</v>
+        <v>0.195</v>
       </c>
       <c r="I920" t="n">
-        <v>2076100</v>
+        <v>6239900</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -32732,28 +32732,28 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F921" t="n">
-        <v>0.165</v>
+        <v>0.195</v>
       </c>
       <c r="G921" t="n">
-        <v>0.145</v>
+        <v>0.18</v>
       </c>
       <c r="H921" t="n">
-        <v>0.165</v>
+        <v>0.19</v>
       </c>
       <c r="I921" t="n">
-        <v>6547900</v>
+        <v>4987400</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -32767,28 +32767,28 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="F922" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="G922" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H922" t="n">
         <v>0.17</v>
       </c>
       <c r="I922" t="n">
-        <v>8781100</v>
+        <v>6381100</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -32805,25 +32805,25 @@
         <v>0.17</v>
       </c>
       <c r="F923" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="G923" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="H923" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I923" t="n">
-        <v>2210200</v>
+        <v>3880200</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -32843,22 +32843,22 @@
         <v>0.18</v>
       </c>
       <c r="G924" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H924" t="n">
         <v>0.165</v>
       </c>
-      <c r="H924" t="n">
-        <v>0.175</v>
-      </c>
       <c r="I924" t="n">
-        <v>9039400</v>
+        <v>5021000</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -32872,28 +32872,28 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>0.175</v>
+        <v>0.155</v>
       </c>
       <c r="F925" t="n">
-        <v>0.175</v>
+        <v>0.18</v>
       </c>
       <c r="G925" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="H925" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="I925" t="n">
-        <v>6228300</v>
+        <v>4620000</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -32907,28 +32907,28 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>0.135</v>
+        <v>0.17</v>
       </c>
       <c r="F926" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="G926" t="n">
-        <v>0.135</v>
+        <v>0.17</v>
       </c>
       <c r="H926" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I926" t="n">
-        <v>4329600</v>
+        <v>4295200</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -32942,28 +32942,28 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="F927" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G927" t="n">
         <v>0.16</v>
       </c>
-      <c r="G927" t="n">
-        <v>0.145</v>
-      </c>
       <c r="H927" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="I927" t="n">
-        <v>3360300</v>
+        <v>2040800</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -32977,28 +32977,28 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F928" t="n">
         <v>0.16</v>
       </c>
       <c r="G928" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H928" t="n">
         <v>0.145</v>
       </c>
-      <c r="H928" t="n">
-        <v>0.15</v>
-      </c>
       <c r="I928" t="n">
-        <v>3618500</v>
+        <v>3402200</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1584057600</v>
+        <v>1583107200</v>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -33015,15 +33015,330 @@
         <v>0.14</v>
       </c>
       <c r="F929" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G929" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I929" t="n">
+        <v>2076100</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G930" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H930" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I930" t="n">
+        <v>6547900</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G931" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H931" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I931" t="n">
+        <v>8781100</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G932" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H932" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I932" t="n">
+        <v>2210200</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G933" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H933" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I933" t="n">
+        <v>9039400</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G934" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H934" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I934" t="n">
+        <v>6228300</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F935" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G935" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H935" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I935" t="n">
+        <v>4329600</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F936" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G936" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H936" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I936" t="n">
+        <v>3360300</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F937" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G937" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H937" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I937" t="n">
+        <v>3618500</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
         <v>0.14</v>
       </c>
-      <c r="G929" t="n">
+      <c r="F938" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G938" t="n">
         <v>0.12</v>
       </c>
-      <c r="H929" t="n">
+      <c r="H938" t="n">
         <v>0.135</v>
       </c>
-      <c r="I929" t="n">
+      <c r="I938" t="n">
         <v>3523200</v>
       </c>
     </row>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I938"/>
+  <dimension ref="A1:I939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33342,6 +33342,41 @@
         <v>3523200</v>
       </c>
     </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G939" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H939" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3592400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I939"/>
+  <dimension ref="A1:I940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33377,6 +33377,41 @@
         <v>3592400</v>
       </c>
     </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G940" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H940" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I940" t="n">
+        <v>1857000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I940"/>
+  <dimension ref="A1:I941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33412,6 +33412,41 @@
         <v>1857000</v>
       </c>
     </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G941" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H941" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>1408700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I941"/>
+  <dimension ref="A1:I942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33447,6 +33447,41 @@
         <v>1408700</v>
       </c>
     </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G942" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H942" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I942" t="n">
+        <v>1640000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I942"/>
+  <dimension ref="A1:I943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33482,6 +33482,41 @@
         <v>1640000</v>
       </c>
     </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G943" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H943" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I943" t="n">
+        <v>1943800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I943"/>
+  <dimension ref="A1:I944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33517,6 +33517,41 @@
         <v>1943800</v>
       </c>
     </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G944" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>585300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I944"/>
+  <dimension ref="A1:I945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33552,6 +33552,41 @@
         <v>585300</v>
       </c>
     </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G945" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H945" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I945" t="n">
+        <v>8081500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I945"/>
+  <dimension ref="A1:I946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33587,6 +33587,41 @@
         <v>8081500</v>
       </c>
     </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G946" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H946" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I946" t="n">
+        <v>31029200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I946"/>
+  <dimension ref="A1:I947"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33622,6 +33622,41 @@
         <v>31029200</v>
       </c>
     </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G947" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H947" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I947" t="n">
+        <v>30167100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I947"/>
+  <dimension ref="A1:I948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33657,6 +33657,41 @@
         <v>30167100</v>
       </c>
     </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G948" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H948" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I948" t="n">
+        <v>25704200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I948"/>
+  <dimension ref="A1:I949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33692,6 +33692,41 @@
         <v>25704200</v>
       </c>
     </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G949" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H949" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I949" t="n">
+        <v>40209800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I949"/>
+  <dimension ref="A1:I950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33727,6 +33727,41 @@
         <v>40209800</v>
       </c>
     </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G950" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H950" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I950" t="n">
+        <v>31895900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I950"/>
+  <dimension ref="A1:I951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33762,6 +33762,41 @@
         <v>31895900</v>
       </c>
     </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G951" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H951" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I951" t="n">
+        <v>28827400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I951"/>
+  <dimension ref="A1:I952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33797,6 +33797,41 @@
         <v>28827400</v>
       </c>
     </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G952" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H952" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I952" t="n">
+        <v>14406000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I952"/>
+  <dimension ref="A1:I953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33832,6 +33832,41 @@
         <v>14406000</v>
       </c>
     </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G953" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H953" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I953" t="n">
+        <v>9507500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I953"/>
+  <dimension ref="A1:I954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33867,6 +33867,41 @@
         <v>9507500</v>
       </c>
     </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G954" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H954" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I954" t="n">
+        <v>12992900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I954"/>
+  <dimension ref="A1:I955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33902,6 +33902,41 @@
         <v>12992900</v>
       </c>
     </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G955" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H955" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I955" t="n">
+        <v>14110200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I955"/>
+  <dimension ref="A1:I956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33937,6 +33937,41 @@
         <v>14110200</v>
       </c>
     </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G956" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H956" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I956" t="n">
+        <v>40634300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I956"/>
+  <dimension ref="A1:I957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33972,6 +33972,41 @@
         <v>40634300</v>
       </c>
     </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G957" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I957" t="n">
+        <v>11910900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I957"/>
+  <dimension ref="A1:I958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34007,6 +34007,41 @@
         <v>11910900</v>
       </c>
     </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G958" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I958" t="n">
+        <v>6169000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I958"/>
+  <dimension ref="A1:I959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34042,6 +34042,41 @@
         <v>6169000</v>
       </c>
     </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G959" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I959" t="n">
+        <v>27824000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I959"/>
+  <dimension ref="A1:I960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34077,6 +34077,41 @@
         <v>27824000</v>
       </c>
     </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G960" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I960" t="n">
+        <v>6678700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I960"/>
+  <dimension ref="A1:I961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34112,6 +34112,41 @@
         <v>6678700</v>
       </c>
     </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I961" t="n">
+        <v>15625200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I961"/>
+  <dimension ref="A1:I962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34147,6 +34147,41 @@
         <v>15625200</v>
       </c>
     </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G962" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I962" t="n">
+        <v>11528800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I962"/>
+  <dimension ref="A1:I963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34182,6 +34182,41 @@
         <v>11528800</v>
       </c>
     </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G963" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I963" t="n">
+        <v>6625000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I963"/>
+  <dimension ref="A1:I965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34217,6 +34217,76 @@
         <v>6625000</v>
       </c>
     </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E964" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G964" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I964" t="n">
+        <v>19264600</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E965" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G965" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I965" t="n">
+        <v>10218900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I965"/>
+  <dimension ref="A1:I966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34287,6 +34287,41 @@
         <v>10218900</v>
       </c>
     </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E966" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G966" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I966" t="n">
+        <v>13577600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I966"/>
+  <dimension ref="A1:I969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34322,6 +34322,111 @@
         <v>13577600</v>
       </c>
     </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E967" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G967" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I967" t="n">
+        <v>14884000</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E968" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G968" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I968" t="n">
+        <v>34432600</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E969" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G969" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I969" t="n">
+        <v>136715300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I969"/>
+  <dimension ref="A1:I970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34427,6 +34427,41 @@
         <v>136715300</v>
       </c>
     </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E970" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G970" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I970" t="n">
+        <v>114194900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I970"/>
+  <dimension ref="A1:I971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34462,6 +34462,41 @@
         <v>114194900</v>
       </c>
     </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E971" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G971" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I971" t="n">
+        <v>25036900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0182.xlsx
+++ b/data/0182.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I971"/>
+  <dimension ref="A1:I974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34497,6 +34497,111 @@
         <v>25036900</v>
       </c>
     </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E972" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G972" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H972" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I972" t="n">
+        <v>35432300</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E973" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G973" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H973" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I973" t="n">
+        <v>58784200</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>LKL</t>
+        </is>
+      </c>
+      <c r="E974" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G974" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H974" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I974" t="n">
+        <v>54215500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
